--- a/NEW HR/ACEBES, SHERYL JOYCE B..xlsx
+++ b/NEW HR/ACEBES, SHERYL JOYCE B..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>01/02-04/2024</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1110,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1174,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1234,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1300,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1363,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1461,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1520,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1585,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1628,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1703,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1889,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1955,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2013,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2079,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2135,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2210,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2253,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2319,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2375,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2536,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,9 +2983,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A5" activePane="bottomLeft"/>
       <selection activeCell="D16" sqref="D16"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3150,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>5.7080000000000002</v>
+        <v>6.9580000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3157,7 +3160,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>7.7080000000000002</v>
+        <v>8.9580000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3347,15 +3350,17 @@
       <c r="B18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="39">
         <v>1</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
@@ -3386,7 +3391,9 @@
       <c r="A20" s="40">
         <v>45292</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -3398,10 +3405,14 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="40">
+        <v>45323</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3417,7 +3428,9 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="40">
+        <v>45352</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3433,7 +3446,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40">
+        <v>45383</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3449,7 +3464,9 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>45413</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3465,7 +3482,9 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="40">
+        <v>45444</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3481,7 +3500,9 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>45474</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3497,7 +3518,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45505</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3513,7 +3536,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45536</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3529,7 +3554,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45566</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3545,7 +3572,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45597</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3561,7 +3590,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45627</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -5284,11 +5315,11 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f>Sheet1!E9</f>
-        <v>5.7080000000000002</v>
+        <v>6.9580000000000002</v>
       </c>
       <c r="B3" s="9">
         <f>Sheet1!I9</f>
-        <v>7.7080000000000002</v>
+        <v>8.9580000000000002</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -5346,7 +5377,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>13.416</v>
+        <v>15.916</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
